--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints7.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints7.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.362303215470972e-06</v>
+        <v>4.381257326973099e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>4.355733743458424e-06</v>
+        <v>4.375800875750453e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>4.343330871955752e-06</v>
+        <v>4.363437147353968e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>4.325566709557194e-06</v>
+        <v>4.344761660425118e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>4.302913364856937e-06</v>
+        <v>4.320369933605326e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>4.275842946449184e-06</v>
+        <v>4.29085748553603e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>4.244827562928095e-06</v>
+        <v>4.256819834858622e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>4.210339322887955e-06</v>
+        <v>4.218852500214631e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>4.172850334922927e-06</v>
+        <v>4.17755100024545e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>4.132832707627159e-06</v>
+        <v>4.133510853592461e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>4.090758549594961e-06</v>
+        <v>4.087327578897215e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>4.047099969420482e-06</v>
+        <v>4.039596694801094e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>4.002329075697866e-06</v>
+        <v>3.990913719945475e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>3.956917977021435e-06</v>
+        <v>3.941874172971921e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>3.91133878198533e-06</v>
+        <v>3.893073572521806e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.866063599183755e-06</v>
+        <v>3.845107437236571e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.821564537210856e-06</v>
+        <v>3.798571285757592e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>3.778313704660952e-06</v>
+        <v>3.75406063672643e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>3.736772601216864e-06</v>
+        <v>3.712154031505585e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>3.697189384119766e-06</v>
+        <v>3.673088602804178e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>3.659614628733057e-06</v>
+        <v>3.636785296067691e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>3.624091459442484e-06</v>
+        <v>3.603153133055881e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>3.590663000633844e-06</v>
+        <v>3.572101135528554e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>3.559372376692898e-06</v>
+        <v>3.543538325245482e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>3.530262712005523e-06</v>
+        <v>3.517373723966547e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>3.50337713095748e-06</v>
+        <v>3.493516353451517e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>3.478758757934533e-06</v>
+        <v>3.471875235460173e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>3.456450717322545e-06</v>
+        <v>3.452359391752379e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>3.436496133507284e-06</v>
+        <v>3.434877844087911e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>3.418938130874545e-06</v>
+        <v>3.419339614226578e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>3.40381983381011e-06</v>
+        <v>3.40565372392817e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>3.391184366699817e-06</v>
+        <v>3.39372919495253e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>3.381074853929442e-06</v>
+        <v>3.383475049059446e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>3.373534419884778e-06</v>
+        <v>3.374800308008715e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>3.368543036820246e-06</v>
+        <v>3.367582325185315e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>3.365658016229897e-06</v>
+        <v>3.361486505792896e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>3.364263200545732e-06</v>
+        <v>3.356091266945223e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>3.36374190330442e-06</v>
+        <v>3.35097476053533e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>3.363477438042625e-06</v>
+        <v>3.345715138456232e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>3.362853118297013e-06</v>
+        <v>3.339890552600947e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>3.361252257604246e-06</v>
+        <v>3.333079154862486e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>3.358058169500997e-06</v>
+        <v>3.324859097133887e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>3.352654167523928e-06</v>
+        <v>3.31480853130816e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>3.344423565209695e-06</v>
+        <v>3.302505609278312e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.332749676094983e-06</v>
+        <v>3.287528482937392e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>3.31701581371645e-06</v>
+        <v>3.269455304178406e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>3.296605291610764e-06</v>
+        <v>3.247864224894375e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>3.270901423314553e-06</v>
+        <v>3.222333396978284e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>3.239287522364549e-06</v>
+        <v>3.192440972323219e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>3.201201055240694e-06</v>
+        <v>3.157798289840617e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>3.156775677695066e-06</v>
+        <v>3.118443340158484e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>3.10662802348219e-06</v>
+        <v>3.07471010150775e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>3.051384441727166e-06</v>
+        <v>3.026938506074205e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>2.991671281555067e-06</v>
+        <v>2.975468486043616e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>2.928114892091201e-06</v>
+        <v>2.920639973601958e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>2.861341622460649e-06</v>
+        <v>2.862792900935004e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>2.791977821788562e-06</v>
+        <v>2.802267200228591e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.720649839199999e-06</v>
+        <v>2.739402803668476e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>2.647984023820303e-06</v>
+        <v>2.674539643440659e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>2.574606724774533e-06</v>
+        <v>2.608017651730899e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>2.501144291187746e-06</v>
+        <v>2.540176760724945e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>2.428211742826659e-06</v>
+        <v>2.471353412085044e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>2.356145470670546e-06</v>
+        <v>2.401798203213507e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>2.284992822056385e-06</v>
+        <v>2.331672678483625e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>2.214787731111988e-06</v>
+        <v>2.261134249720002e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>2.145564131965442e-06</v>
+        <v>2.190340328747514e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>2.077355958744558e-06</v>
+        <v>2.119448327390768e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>2.010197145577156e-06</v>
+        <v>2.048615657474363e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.944121626591311e-06</v>
+        <v>1.977999730823181e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.879163335914842e-06</v>
+        <v>1.907757959261824e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.815356207675567e-06</v>
+        <v>1.838047754614898e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.752734176001559e-06</v>
+        <v>1.769026528707278e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.691331175020636e-06</v>
+        <v>1.70085169336357e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.631181138860703e-06</v>
+        <v>1.633680660408467e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.572318001649586e-06</v>
+        <v>1.567670841666578e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.514775697515345e-06</v>
+        <v>1.502979648962773e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.458588160585804e-06</v>
+        <v>1.439764494121659e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.403789324988797e-06</v>
+        <v>1.378182788967851e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.350413124852372e-06</v>
+        <v>1.318391945326206e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.298493494304358e-06</v>
+        <v>1.260549375021337e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.24806436747266e-06</v>
+        <v>1.204812489877939e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.199159678485119e-06</v>
+        <v>1.15133870172064e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.151813361469767e-06</v>
+        <v>1.100285422374273e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.106059350554442e-06</v>
+        <v>1.051810063663462e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.061931579866991e-06</v>
+        <v>1.006070037412845e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.019463983535434e-06</v>
+        <v>9.632227554472368e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>9.786904956876158e-07</v>
+        <v>9.234256295912702e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>9.396870772480679e-07</v>
+        <v>8.868256831192385e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>9.027481504294365e-07</v>
+        <v>8.535159381374503e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>8.682388991160185e-07</v>
+        <v>8.235719252647694e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>8.365245434962906e-07</v>
+        <v>7.970691661459063e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>8.079703037587447e-07</v>
+        <v>7.740831824255896e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>7.829414000919819e-07</v>
+        <v>7.546894957486356e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>7.618030526844901e-07</v>
+        <v>7.389636277597684e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>7.449204817247762e-07</v>
+        <v>7.269811001037307e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>7.326589074014118e-07</v>
+        <v>7.188174344253106e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>7.253835499028985e-07</v>
+        <v>7.145481523692463e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>7.234596294177627e-07</v>
+        <v>7.142487755802935e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>7.272523661345403e-07</v>
+        <v>7.179948257032165e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>7.371269802417481e-07</v>
+        <v>7.258618243827617e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>3.981233727102031e-06</v>
+        <v>3.943182937550089e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>5.344772486200934e-06</v>
+        <v>5.334169259563987e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>5.141395280622796e-06</v>
+        <v>5.083068976182881e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>5.097941701816637e-06</v>
+        <v>5.075314798003582e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>5.099663797237392e-06</v>
+        <v>5.128427358443924e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>5.076472960627423e-06</v>
+        <v>5.109838535716267e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>5.503063168338526e-06</v>
+        <v>5.495828726893792e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>7.218063181854293e-06</v>
+        <v>7.169423487343901e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>9.899425904430308e-06</v>
+        <v>9.859874182473064e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.10009446926412e-05</v>
+        <v>1.104038104124759e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.151317506842404e-05</v>
+        <v>1.159894358465737e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.198145944619599e-05</v>
+        <v>1.201532805749417e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.175080595922978e-05</v>
+        <v>1.165174993782733e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.102578324617399e-05</v>
+        <v>1.091187213129485e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.047275218511041e-05</v>
+        <v>1.0661515974828e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.023570690765835e-05</v>
+        <v>1.063030903739607e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.0265596823951e-05</v>
+        <v>1.0454243436521e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.050055644835666e-05</v>
+        <v>1.061009546840531e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03040632792568e-05</v>
+        <v>1.033470425686399e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>9.871253012241113e-06</v>
+        <v>9.798786813906126e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>9.57662838253059e-06</v>
+        <v>9.563523768606594e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>9.217771318295284e-06</v>
+        <v>9.229916617932959e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>8.857199470417667e-06</v>
+        <v>8.877755511263097e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>8.571145843733227e-06</v>
+        <v>8.622836934808947e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>8.335232543193142e-06</v>
+        <v>8.420627385317791e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>8.114182228705637e-06</v>
+        <v>8.209224387478364e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>7.873330414683797e-06</v>
+        <v>7.931313058984925e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>7.584265720147158e-06</v>
+        <v>7.576386852518655e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>7.222232463757894e-06</v>
+        <v>7.161304381626422e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>6.763422435043557e-06</v>
+        <v>6.703226298711958e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>6.219069476467318e-06</v>
+        <v>6.2176763422679e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>5.645926212216105e-06</v>
+        <v>5.718051939090132e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>5.103787153605912e-06</v>
+        <v>5.217608420779885e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>4.645964980968231e-06</v>
+        <v>4.73311610235207e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>4.283025465271107e-06</v>
+        <v>4.304526199065069e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>4.008187670164902e-06</v>
+        <v>3.980977204886799e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>3.809345508229742e-06</v>
+        <v>3.781067563268852e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>3.663504377851144e-06</v>
+        <v>3.660313940289922e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.546878742381602e-06</v>
+        <v>3.567773585889046e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>3.446651355026423e-06</v>
+        <v>3.478918003657979e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>3.36006422823565e-06</v>
+        <v>3.393443788685857e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>3.284731673798273e-06</v>
+        <v>3.311944121519094e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>3.218268003503385e-06</v>
+        <v>3.235012182704212e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>3.158287529139974e-06</v>
+        <v>3.163241152787626e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>3.102492073960652e-06</v>
+        <v>3.097179562905641e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>3.049785664496766e-06</v>
+        <v>3.03676256550031e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.99994583819743e-06</v>
+        <v>2.981479637148824e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.952769796107709e-06</v>
+        <v>2.930810221823106e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.908054739272673e-06</v>
+        <v>2.88423376349508e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.865597868737454e-06</v>
+        <v>2.84122970613674e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.825196385547122e-06</v>
+        <v>2.801277493720012e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.786647490746765e-06</v>
+        <v>2.763856570216844e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.749748385381458e-06</v>
+        <v>2.728446379599169e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.714321751028838e-06</v>
+        <v>2.694593552602849e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.680316499836479e-06</v>
+        <v>2.662177563223402e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.647720561941851e-06</v>
+        <v>2.631180767626201e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.616521878905222e-06</v>
+        <v>2.601585552096057e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.586708392286821e-06</v>
+        <v>2.573374302917735e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.558268043646888e-06</v>
+        <v>2.546529406376018e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.531188774545654e-06</v>
+        <v>2.521033248755676e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.505458526543385e-06</v>
+        <v>2.496868216341514e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>2.481065241200308e-06</v>
+        <v>2.474016695418301e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>2.457996860076657e-06</v>
+        <v>2.452461072270809e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.436241324732694e-06</v>
+        <v>2.43218373318384e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>2.415786576728649e-06</v>
+        <v>2.413167064442166e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>2.396620557624763e-06</v>
+        <v>2.395393452330567e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>2.378731208981272e-06</v>
+        <v>2.378845283133818e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>2.362106472358432e-06</v>
+        <v>2.363504943136716e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.346734289316477e-06</v>
+        <v>2.349354818624034e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.332602601415641e-06</v>
+        <v>2.336377295880549e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.319699350216181e-06</v>
+        <v>2.324554761191054e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.30801247727833e-06</v>
+        <v>2.313869600840323e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.29752992416233e-06</v>
+        <v>2.304304201113139e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.288239632428418e-06</v>
+        <v>2.29584094829428e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.280129543636845e-06</v>
+        <v>2.288462228668535e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.273187599347849e-06</v>
+        <v>2.282150428520682e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.267401741121667e-06</v>
+        <v>2.2768879341355e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.262759910518547e-06</v>
+        <v>2.272657131797774e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.259250049098728e-06</v>
+        <v>2.269440407792285e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.25686009842245e-06</v>
+        <v>2.267220148403814e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.255578000049957e-06</v>
+        <v>2.265978739917141e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.255391695541489e-06</v>
+        <v>2.265698568617051e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.256289126457289e-06</v>
+        <v>2.266362020788323e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.258258234357597e-06</v>
+        <v>2.267951482715739e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.261286960802657e-06</v>
+        <v>2.270449340684082e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.265363247352707e-06</v>
+        <v>2.273837980978131e-06</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.270475035567991e-06</v>
+        <v>2.27809978988267e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.276610261543027e-06</v>
+        <v>2.283217149893305e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.283737332130289e-06</v>
+        <v>2.289158904641535e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.291761261577105e-06</v>
+        <v>2.295849950130739e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.300574224010912e-06</v>
+        <v>2.30320628080847e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.31006839355914e-06</v>
+        <v>2.311143891122272e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.320135944349228e-06</v>
+        <v>2.319578775519699e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.330669050508612e-06</v>
+        <v>2.328426928448301e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.341559886164734e-06</v>
+        <v>2.337604344355631e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.35270062544502e-06</v>
+        <v>2.347027017689233e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.36398344247691e-06</v>
+        <v>2.35661094289666e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.37530051138784e-06</v>
+        <v>2.366272114425463e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.386544006305252e-06</v>
+        <v>2.375926526723196e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.397606101356572e-06</v>
+        <v>2.385490174237401e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.408378970669239e-06</v>
+        <v>2.394879051415632e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.418754788370697e-06</v>
+        <v>2.404009152705444e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.428625728588369e-06</v>
+        <v>2.412796472554378e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.4378839654497e-06</v>
+        <v>2.421157005409989e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.446421673082122e-06</v>
+        <v>2.429006745719827e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>2.454131025613076e-06</v>
+        <v>2.436261687931447e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>2.460904197169992e-06</v>
+        <v>2.44283782649239e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>2.466633361880309e-06</v>
+        <v>2.448651155850212e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>2.471210693871464e-06</v>
+        <v>2.453617670452464e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>2.47452836727089e-06</v>
+        <v>2.457653364746692e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>2.476478556206025e-06</v>
+        <v>2.460674233180449e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.476953434804304e-06</v>
+        <v>2.462596270201283e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>2.475845177193164e-06</v>
+        <v>2.463335470256748e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>2.473045957500041e-06</v>
+        <v>2.462807827794391e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>2.468464870864914e-06</v>
+        <v>2.460934430968507e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>2.462101419181163e-06</v>
+        <v>2.457663582941244e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>2.453985174195385e-06</v>
+        <v>2.452952638757063e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>2.444145727904479e-06</v>
+        <v>2.446758959556341e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>2.432612672305344e-06</v>
+        <v>2.439039906479453e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.419415599394874e-06</v>
+        <v>2.429752840666773e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>2.404584101169983e-06</v>
+        <v>2.418855123258687e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.388147769627562e-06</v>
+        <v>2.406304115395565e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>2.370136196764507e-06</v>
+        <v>2.39205717821778e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>2.35057897457773e-06</v>
+        <v>2.37607167286572e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>2.329505695064128e-06</v>
+        <v>2.358304960479758e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>2.306945950220598e-06</v>
+        <v>2.33871440220027e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>2.282929332044031e-06</v>
+        <v>2.317257359167623e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>2.257485432531348e-06</v>
+        <v>2.293891192522212e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>2.230643843679439e-06</v>
+        <v>2.268573263404406e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>2.202434157485191e-06</v>
+        <v>2.24126093295457e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.172885965945529e-06</v>
+        <v>2.211911562313104e-06</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.1420200384448e-06</v>
+        <v>2.180485302980826e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.109763425292853e-06</v>
+        <v>2.146971947338501e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.075986663471503e-06</v>
+        <v>2.111379161447127e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.04055951065355e-06</v>
+        <v>2.073714857842721e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>2.003351724511745e-06</v>
+        <v>2.033986949061253e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.964233062718858e-06</v>
+        <v>1.992203347638708e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.923073282947639e-06</v>
+        <v>1.948371966111051e-06</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.879742142870891e-06</v>
+        <v>1.902500717014308e-06</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>1.834109400161365e-06</v>
+        <v>1.854597512884444e-06</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.786044812491808e-06</v>
+        <v>1.804670266257422e-06</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.735418137535031e-06</v>
+        <v>1.752726889669272e-06</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.682099132963781e-06</v>
+        <v>1.698775295655959e-06</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.625957556450801e-06</v>
+        <v>1.642823396753441e-06</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.566940801491867e-06</v>
+        <v>1.584944553689209e-06</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.505947272485443e-06</v>
+        <v>1.526013843991855e-06</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.444512769981086e-06</v>
+        <v>1.467443679937512e-06</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.384184842150746e-06</v>
+        <v>1.410656377228459e-06</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.326511037166455e-06</v>
+        <v>1.357074251567057e-06</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.273038903200162e-06</v>
+        <v>1.308119618655585e-06</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.225315988423844e-06</v>
+        <v>1.26521479419635e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.18488984100946e-06</v>
+        <v>1.229782093891645e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.153308009129026e-06</v>
+        <v>1.203243833443809e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.132118040954497e-06</v>
+        <v>1.187022328555131e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.122867484657849e-06</v>
+        <v>1.182539894927918e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.127103888411068e-06</v>
+        <v>1.191218848264483e-06</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.146374800386123e-06</v>
+        <v>1.214481504267126e-06</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.182093234561433e-06</v>
+        <v>1.253615158952534e-06</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.233758246159394e-06</v>
+        <v>1.307986242699479e-06</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.299444602076838e-06</v>
+        <v>1.375531757747569e-06</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.377193157723813e-06</v>
+        <v>1.454154672473621e-06</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.46504476851039e-06</v>
+        <v>1.541757955254476e-06</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.561040289846521e-06</v>
+        <v>1.636244574466852e-06</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.663220577142271e-06</v>
+        <v>1.735517498487583e-06</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.769626485807669e-06</v>
+        <v>1.837479695693469e-06</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.878298871252796e-06</v>
+        <v>1.940034134461352e-06</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.987278588887581e-06</v>
+        <v>2.041083783167937e-06</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.094606494122103e-06</v>
+        <v>2.138531610190068e-06</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.198323442366436e-06</v>
+        <v>2.230280583904583e-06</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.296470289030516e-06</v>
+        <v>2.314233672688196e-06</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.387087889524422e-06</v>
+        <v>2.388293844917749e-06</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.468339386021329e-06</v>
+        <v>2.450822768197722e-06</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.540099119039508e-06</v>
+        <v>2.50660083722209e-06</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.603500585980995e-06</v>
+        <v>2.565131560415896e-06</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.659724284151295e-06</v>
+        <v>2.636026278359147e-06</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.719502157034422e-06</v>
+        <v>2.72797876850057e-06</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.818404254983397e-06</v>
+        <v>2.84709501725615e-06</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.965921092826688e-06</v>
+        <v>2.988053637239374e-06</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>3.122276736091252e-06</v>
+        <v>3.127546577934527e-06</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.248127219320782e-06</v>
+        <v>3.243001865113867e-06</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.332666803151173e-06</v>
+        <v>3.325588831311993e-06</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.375260301992635e-06</v>
+        <v>3.371373984483833e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.375285002536906e-06</v>
+        <v>3.376429838053796e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>3.332639774123273e-06</v>
+        <v>3.337454250739228e-06</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>3.257508435797114e-06</v>
+        <v>3.263476099011205e-06</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>3.169490228935102e-06</v>
+        <v>3.174812767621718e-06</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>3.088531646607378e-06</v>
+        <v>3.092197974598034e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>3.034579181884197e-06</v>
+        <v>3.036365437967536e-06</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>3.027579327835693e-06</v>
+        <v>3.028048875757487e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>3.087478577532039e-06</v>
+        <v>3.087982005995189e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>3.234223424043498e-06</v>
+        <v>3.236898546708033e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>3.487760360440119e-06</v>
+        <v>3.495532215923195e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>3.855394426717735e-06</v>
+        <v>3.871283087552452e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>4.197643800329419e-06</v>
+        <v>4.216726962184775e-06</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>4.327466221148609e-06</v>
+        <v>4.3339878063239e-06</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>4.289750415259451e-06</v>
+        <v>4.268395098612143e-06</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>4.2002082815581e-06</v>
+        <v>4.139722877105604e-06</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>4.120046434070344e-06</v>
+        <v>4.017125834103711e-06</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>4.041006678234445e-06</v>
+        <v>3.905243026651484e-06</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>3.950323421028004e-06</v>
+        <v>3.804527252867371e-06</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>3.835232815097714e-06</v>
+        <v>3.715431625819008e-06</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.69218746514428e-06</v>
+        <v>3.640072067611412e-06</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.548370141896685e-06</v>
+        <v>3.586108759408186e-06</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>3.437360575962288e-06</v>
+        <v>3.562356005742196e-06</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.39273849794845e-06</v>
+        <v>3.577628111146335e-06</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.444185689892825e-06</v>
+        <v>3.638904731833418e-06</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.568964058010565e-06</v>
+        <v>3.728493049407335e-06</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>3.706804322769e-06</v>
+        <v>3.811035433930949e-06</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>3.796621589452752e-06</v>
+        <v>3.850790369687696e-06</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>3.790358186673029e-06</v>
+        <v>3.819693036122612e-06</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>3.6958865791419e-06</v>
+        <v>3.722637179094178e-06</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.536086105001577e-06</v>
+        <v>3.573359809811016e-06</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>3.333836285906394e-06</v>
+        <v>3.385598047621903e-06</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>3.11201663657458e-06</v>
+        <v>3.173089027095429e-06</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.892753180170001e-06</v>
+        <v>2.95122325084087e-06</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.695345345451771e-06</v>
+        <v>2.741593548258488e-06</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>2.538429877458349e-06</v>
+        <v>2.567246859385792e-06</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>2.440643521228298e-06</v>
+        <v>2.451230124260391e-06</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>2.41927808011745e-06</v>
+        <v>2.415061728469563e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>2.470510430071157e-06</v>
+        <v>2.456262499434292e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.57374110377105e-06</v>
+        <v>2.553286598351099e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.707907825057701e-06</v>
+        <v>2.684062194455108e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.851948317771487e-06</v>
+        <v>2.826517456981255e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.984800305752971e-06</v>
+        <v>2.958580555164656e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>3.085401512842659e-06</v>
+        <v>3.058179658240372e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>3.132689662881065e-06</v>
+        <v>3.10324293544347e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>3.105692522841444e-06</v>
+        <v>3.071793750595882e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.995166423666417e-06</v>
+        <v>2.954255033899763e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.815108881360179e-06</v>
+        <v>2.765620551141137e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.582253386169503e-06</v>
+        <v>2.523776570063132e-06</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.313333428340924e-06</v>
+        <v>2.246609358408627e-06</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>2.025082498121051e-06</v>
+        <v>1.952005183920578e-06</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.734234085756359e-06</v>
+        <v>1.657850314341807e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.45752168149372e-06</v>
+        <v>1.382031017415536e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.211678775579608e-06</v>
+        <v>1.142433560884584e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.013403772743557e-06</v>
+        <v>9.569047761226883e-07</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>8.721399376122883e-07</v>
+        <v>8.351366657359105e-07</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>7.812323137278441e-07</v>
+        <v>7.687267180207184e-07</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>7.318614698053132e-07</v>
+        <v>7.468395362657601e-07</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>7.152079745597821e-07</v>
+        <v>7.586397237596946e-07</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>7.224523967063511e-07</v>
+        <v>7.93291883791155e-07</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>7.447753049600937e-07</v>
+        <v>8.399606196487876e-07</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>7.733572680361113e-07</v>
+        <v>8.878105346212604e-07</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>7.993788546494634e-07</v>
+        <v>9.260062319971746e-07</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>8.145485072335756e-07</v>
+        <v>9.443778201954357e-07</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>8.186031458903399e-07</v>
+        <v>9.42877133515329e-07</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>8.175271588347989e-07</v>
+        <v>9.293323636801727e-07</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.174695667232482e-07</v>
+        <v>9.117792591270649e-07</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>8.245793902119806e-07</v>
+        <v>8.982535682930854e-07</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>8.450056499573018e-07</v>
+        <v>8.96791039615321e-07</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>8.848973666154886e-07</v>
+        <v>9.154274215308594e-07</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>9.504035608428393e-07</v>
+        <v>9.621984624767805e-07</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.047673253295646e-06</v>
+        <v>1.045139910890167e-06</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.180557883029324e-06</v>
+        <v>1.169515306586082e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.343433514531823e-06</v>
+        <v>1.329155422394295e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.528233910185086e-06</v>
+        <v>1.514944206120675e-06</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.726892829870806e-06</v>
+        <v>1.717765602554361e-06</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.931344033470771e-06</v>
+        <v>1.928503556484591e-06</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>2.133521280866485e-06</v>
+        <v>2.138042012700311e-06</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>2.325358331939735e-06</v>
+        <v>2.337264915990757e-06</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>2.498788946572286e-06</v>
+        <v>2.517056211145144e-06</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>2.645823869396989e-06</v>
+        <v>2.66837920887982e-06</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.772912512082594e-06</v>
+        <v>2.797082481988732e-06</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.917840255177682e-06</v>
+        <v>2.941319809007593e-06</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>3.12249953260017e-06</v>
+        <v>3.143479055013306e-06</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.42878277826815e-06</v>
+        <v>3.445948085082945e-06</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>3.878582426099653e-06</v>
+        <v>3.891114764293524e-06</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>4.513790910013044e-06</v>
+        <v>4.521366957722387e-06</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>5.376300663925803e-06</v>
+        <v>5.379092530446002e-06</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>6.508004121756199e-06</v>
+        <v>6.506679347541619e-06</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>7.949886647332628e-06</v>
+        <v>7.945605023363624e-06</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>9.692120837155748e-06</v>
+        <v>9.686356230433699e-06</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.164812873592669e-05</v>
+        <v>1.164239996436447e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.372495956556841e-05</v>
+        <v>1.372080805174548e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.582966254800412e-05</v>
+        <v>1.58286523191665e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.786928690515412e-05</v>
+        <v>1.787300459321441e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.975088185894162e-05</v>
+        <v>1.9760936700479e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>2.138149663128953e-05</v>
+        <v>2.139952046754974e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>2.26681804441186e-05</v>
+        <v>2.269582772101396e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>2.353617463233598e-05</v>
+        <v>2.357505640606011e-05</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>2.400593075273366e-05</v>
+        <v>2.405726930162165e-05</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>2.41289432597238e-05</v>
+        <v>2.419345947188294e-05</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>2.395672369165971e-05</v>
+        <v>2.403463700299508e-05</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>2.354078358689489e-05</v>
+        <v>2.363181198110946e-05</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>2.293263448378273e-05</v>
+        <v>2.30359944923773e-05</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>2.218378792067625e-05</v>
+        <v>2.229819462294945e-05</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>2.134575543592952e-05</v>
+        <v>2.146942245897785e-05</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>2.047004787445223e-05</v>
+        <v>2.060068740358851e-05</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.959888159743188e-05</v>
+        <v>1.973384401923285e-05</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.874187791550437e-05</v>
+        <v>1.887864153540348e-05</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.790151688898851e-05</v>
+        <v>1.803779522351375e-05</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.70802785782035e-05</v>
+        <v>1.721402035497734e-05</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.628064304346821e-05</v>
+        <v>1.641003220120763e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.550509034510254e-05</v>
+        <v>1.562854603361905e-05</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.475610054342534e-05</v>
+        <v>1.487227712362495e-05</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.403615369875583e-05</v>
+        <v>1.414394074263904e-05</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.334772987141288e-05</v>
+        <v>1.344625216207473e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.269330912171635e-05</v>
+        <v>1.278192665334637e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.207537150998509e-05</v>
+        <v>1.215367948786733e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.149639709653809e-05</v>
+        <v>1.156422593705109e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.095886594169505e-05</v>
+        <v>1.101628127231188e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.046525810577491e-05</v>
+        <v>1.051256076506314e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.00180536490967e-05</v>
+        <v>1.00557796867184e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>9.619732631980016e-06</v>
+        <v>9.64865330869178e-06</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>9.272775114743849e-06</v>
+        <v>9.293896902396774e-06</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>8.979087309465789e-06</v>
+        <v>8.993621756361056e-06</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>8.73674198711171e-06</v>
+        <v>8.745904411494013e-06</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>8.542241245675323e-06</v>
+        <v>8.547168254567825e-06</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>8.392082437942247e-06</v>
+        <v>8.393831677960215e-06</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>8.282762916698216e-06</v>
+        <v>8.282313074049031e-06</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>8.210780034728937e-06</v>
+        <v>8.209030835212092e-06</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>8.17263114482021e-06</v>
+        <v>8.170403353827313e-06</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>8.164813599757727e-06</v>
+        <v>8.162849022272494e-06</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>8.183824752327239e-06</v>
+        <v>8.182786232925501e-06</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>8.226161955314457e-06</v>
+        <v>8.226633378164155e-06</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>8.288322561505124e-06</v>
+        <v>8.290808850366307e-06</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>8.366803923685008e-06</v>
+        <v>8.371731041909846e-06</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>8.458103394639776e-06</v>
+        <v>8.46581834517254e-06</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>8.558718327155191e-06</v>
+        <v>8.569489152532272e-06</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>8.665146074017036e-06</v>
+        <v>8.679161856366935e-06</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>8.7738839880109e-06</v>
+        <v>8.791254849054225e-06</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>8.881429421922709e-06</v>
+        <v>8.90218652297219e-06</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>8.9842797285381e-06</v>
+        <v>9.008375270498566e-06</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>9.078932260642719e-06</v>
+        <v>9.106239484011119e-06</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>9.161884371022466e-06</v>
+        <v>9.192197555887862e-06</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>9.229633412462933e-06</v>
+        <v>9.262667878506491e-06</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>9.27867673774997e-06</v>
+        <v>9.314068844244979e-06</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>9.305511699669244e-06</v>
+        <v>9.342818845481094e-06</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>9.30663565100649e-06</v>
+        <v>9.345336274592686e-06</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>9.278545944547443e-06</v>
+        <v>9.318039523957608e-06</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>9.217739933077822e-06</v>
+        <v>9.257346985953685e-06</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>9.12105568854496e-06</v>
+        <v>9.160025257145127e-06</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>8.989303839992306e-06</v>
+        <v>9.026900761565121e-06</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>8.825863521595071e-06</v>
+        <v>8.86142485410013e-06</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>8.634156926668155e-06</v>
+        <v>8.667092894712925e-06</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>8.417606248525913e-06</v>
+        <v>8.447400243365717e-06</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>8.179633680483219e-06</v>
+        <v>8.205842260021251e-06</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>7.923661415855027e-06</v>
+        <v>7.945914304642341e-06</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>7.653111647955574e-06</v>
+        <v>7.67111173719109e-06</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>7.371406570099806e-06</v>
+        <v>7.384929917630299e-06</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>7.081968375602686e-06</v>
+        <v>7.090864205922813e-06</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>6.78821925777841e-06</v>
+        <v>6.792409962030671e-06</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>6.493581409942206e-06</v>
+        <v>6.493062545916981e-06</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>6.201477025408253e-06</v>
+        <v>6.196317317543771e-06</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>5.915328297491527e-06</v>
+        <v>5.905669636873892e-06</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>5.638557419506984e-06</v>
+        <v>5.624614863870163e-06</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>5.374586584768832e-06</v>
+        <v>5.356648358494648e-06</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>5.126837986592039e-06</v>
+        <v>5.105265480710184e-06</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>4.898667984620128e-06</v>
+        <v>4.873894275374517e-06</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>4.69153080191234e-06</v>
+        <v>4.664017847601728e-06</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>4.504734207816723e-06</v>
+        <v>4.474924547846654e-06</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>4.337471050804958e-06</v>
+        <v>4.305785219660762e-06</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>4.188934179348287e-06</v>
+        <v>4.155770706595062e-06</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>4.058316441918514e-06</v>
+        <v>4.024051852201145e-06</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>3.944810686986948e-06</v>
+        <v>3.909799500030095e-06</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>3.847609763025253e-06</v>
+        <v>3.812184493633355e-06</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>3.765906518505034e-06</v>
+        <v>3.73037767656231e-06</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>3.698893801897686e-06</v>
+        <v>3.663549892368133e-06</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>3.645764461674828e-06</v>
+        <v>3.610871984602221e-06</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>3.60571134630803e-06</v>
+        <v>3.571514796815923e-06</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>3.577927304268762e-06</v>
+        <v>3.544649172560488e-06</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>3.561605184028603e-06</v>
+        <v>3.529445955387275e-06</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>3.555937834059095e-06</v>
+        <v>3.525075988847602e-06</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>3.560118102831768e-06</v>
+        <v>3.530710116492779e-06</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>3.573338838818169e-06</v>
+        <v>3.545519181874133e-06</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>3.594792890489819e-06</v>
+        <v>3.56867402854296e-06</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>3.623673106318293e-06</v>
+        <v>3.599345500050618e-06</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>3.659172334775082e-06</v>
+        <v>3.636704439948373e-06</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>3.70048342433179e-06</v>
+        <v>3.679921691787612e-06</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>3.746799223459928e-06</v>
+        <v>3.728168099119621e-06</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>3.797312580630989e-06</v>
+        <v>3.780614505495671e-06</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>3.851216344316603e-06</v>
+        <v>3.836431754467174e-06</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>3.907703362988266e-06</v>
+        <v>3.894790689585406e-06</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>3.965966485117464e-06</v>
+        <v>3.954862154401625e-06</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>4.025198559175845e-06</v>
+        <v>4.015816992467263e-06</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>4.084592433634895e-06</v>
+        <v>4.076826047333583e-06</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>4.1433409569661e-06</v>
+        <v>4.13706016255185e-06</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>4.20063697764111e-06</v>
+        <v>4.195690181673492e-06</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>4.255673344131406e-06</v>
+        <v>4.251886948249771e-06</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>4.307642904908485e-06</v>
+        <v>4.30482130583196e-06</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>4.355738508443983e-06</v>
+        <v>4.353664097971475e-06</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>4.399153003209353e-06</v>
+        <v>4.397586168219547e-06</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>4.43707923767621e-06</v>
+        <v>4.435758360127571e-06</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>4.46886917033528e-06</v>
+        <v>4.467513089901631e-06</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>4.496305618586426e-06</v>
+        <v>4.494651256432398e-06</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>4.52306863983991e-06</v>
+        <v>4.520900363275504e-06</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>4.552888618464482e-06</v>
+        <v>4.550039019883814e-06</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>4.589495938828892e-06</v>
+        <v>4.585845835710186e-06</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>4.636620985301984e-06</v>
+        <v>4.632099420207576e-06</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>4.697994142252512e-06</v>
+        <v>4.69257838282885e-06</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>4.777345794049176e-06</v>
+        <v>4.771061333026822e-06</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>4.878406325060901e-06</v>
+        <v>4.871326880254526e-06</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>5.004906119656278e-06</v>
+        <v>4.997153633964667e-06</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>5.160575562204313e-06</v>
+        <v>5.152320203610362e-06</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>5.349145037073689e-06</v>
+        <v>5.340605198644405e-06</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>5.574344928632969e-06</v>
+        <v>5.565787228519469e-06</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>5.839905621251336e-06</v>
+        <v>5.831644902688854e-06</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>6.149557499297386e-06</v>
+        <v>6.141956830605265e-06</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>6.507030947139557e-06</v>
+        <v>6.500501621721252e-06</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>6.916056349147272e-06</v>
+        <v>6.911057885490352e-06</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>7.380364089689018e-06</v>
+        <v>7.377404231365158e-06</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>7.90368455313307e-06</v>
+        <v>7.903319268798064e-06</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>8.489748123849159e-06</v>
+        <v>8.492581607242906e-06</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>9.142285186205619e-06</v>
+        <v>9.148969856152136e-06</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>9.865026124570549e-06</v>
+        <v>9.876262624977959e-06</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.065981842772042e-05</v>
+        <v>1.067634168431655e-05</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.150826075133097e-05</v>
+        <v>1.15306900245102e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.237962670919376e-05</v>
+        <v>1.240837432431599e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.324301527456955e-05</v>
+        <v>1.327828532870787e-05</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.406752542071602e-05</v>
+        <v>1.410931378265671e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.482225612089382e-05</v>
+        <v>1.487035043113636e-05</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.547630634836138e-05</v>
+        <v>1.553028601911843e-05</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.599877507637745e-05</v>
+        <v>1.605801129157486e-05</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.635876127820217e-05</v>
+        <v>1.642241699347897e-05</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.652536392709417e-05</v>
+        <v>1.659239386980259e-05</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.646768199631277e-05</v>
+        <v>1.653683266551823e-05</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.615481445911707e-05</v>
+        <v>1.622462412559819e-05</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.555586028876617e-05</v>
+        <v>1.562465899501474e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.465074207963487e-05</v>
+        <v>1.471670037702809e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.349378171306359e-05</v>
+        <v>1.355524567089887e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.21705773214594e-05</v>
+        <v>1.22262093593078e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.076683527056699e-05</v>
+        <v>1.081561464563201e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>9.368261926134611e-06</v>
+        <v>9.409484733252246e-06</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>8.060563653910527e-06</v>
+        <v>8.093842825549209e-06</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>6.929446819639439e-06</v>
+        <v>6.954712125900065e-06</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>6.060617789069719e-06</v>
+        <v>6.078115837685649e-06</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>5.539782927948792e-06</v>
+        <v>5.550077164285843e-06</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>5.432933641335675e-06</v>
+        <v>5.436849874608055e-06</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>5.716028519903201e-06</v>
+        <v>5.714406156352828e-06</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>6.339339956494091e-06</v>
+        <v>6.332961026670114e-06</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>7.253138405659099e-06</v>
+        <v>7.242727559062254e-06</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>8.407694321946277e-06</v>
+        <v>8.393918827028894e-06</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>9.75327815990734e-06</v>
+        <v>9.736747904073345e-06</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.124016037409095e-05</v>
+        <v>1.122142786369585e-05</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.281861141904525e-05</v>
+        <v>1.279817177939616e-05</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.443890174932273e-05</v>
+        <v>1.441719272467834e-05</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.60513018194716e-05</v>
+        <v>1.60287037730422e-05</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.760608208404009e-05</v>
+        <v>1.758291799798757e-05</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.905351299758066e-05</v>
+        <v>1.903004847301848e-05</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.034386501464143e-05</v>
+        <v>2.032030827163467e-05</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.142740858977118e-05</v>
+        <v>2.140391046733649e-05</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>2.225441417752147e-05</v>
+        <v>2.22310681336271e-05</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.277515223244084e-05</v>
+        <v>2.275199434400663e-05</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.29398932090789e-05</v>
+        <v>2.291690217197627e-05</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.270921250290612e-05</v>
+        <v>2.268631888303126e-05</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.211277058557963e-05</v>
+        <v>2.20899188387232e-05</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.120862524240379e-05</v>
+        <v>2.118579920742241e-05</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.005492155777183e-05</v>
+        <v>2.003214453495924e-05</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>1.870980461608062e-05</v>
+        <v>1.868713936716767e-05</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.723141950172257e-05</v>
+        <v>1.720896824987728e-05</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.567791129909374e-05</v>
+        <v>1.565581572892121e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.410742509259042e-05</v>
+        <v>1.408586635013289e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.257810596660464e-05</v>
+        <v>1.255730465934149e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.114809900553271e-05</v>
+        <v>1.112831520238042e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>9.875512265391331e-06</v>
+        <v>9.857045443675494e-06</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>8.797944031027735e-06</v>
+        <v>8.781103704611485e-06</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>7.898459675929809e-06</v>
+        <v>7.883487299088129e-06</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>7.151161368181843e-06</v>
+        <v>7.138217499470148e-06</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>6.530151275866186e-06</v>
+        <v>6.519315578120336e-06</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>6.00953156706768e-06</v>
+        <v>6.00080280740397e-06</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>5.563404409869081e-06</v>
+        <v>5.556700459684252e-06</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>5.165954602757287e-06</v>
+        <v>5.161112734042881e-06</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>4.79957600390215e-06</v>
+        <v>4.796382327106001e-06</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>4.461723928820535e-06</v>
+        <v>4.459967403551048e-06</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>4.151467134295744e-06</v>
+        <v>4.150945355156377e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>3.867874377110988e-06</v>
+        <v>3.868393573700241e-06</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>3.610014414048724e-06</v>
+        <v>3.611389450960144e-06</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>3.376956001892187e-06</v>
+        <v>3.379010378714362e-06</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>3.167767897424519e-06</v>
+        <v>3.170333748741088e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>2.98151885742831e-06</v>
+        <v>2.984436952817956e-06</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.817277638686724e-06</v>
+        <v>2.820397382723175e-06</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.67411299798285e-06</v>
+        <v>2.677292430234878e-06</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.551093692099394e-06</v>
+        <v>2.554199487130821e-06</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>2.44728847781946e-06</v>
+        <v>2.450195945189151e-06</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>2.361766111926084e-06</v>
+        <v>2.36435919618795e-06</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.293595351202079e-06</v>
+        <v>2.295766631905076e-06</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.241844952430536e-06</v>
+        <v>2.243495644118667e-06</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.205583672394326e-06</v>
+        <v>2.206623624606638e-06</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.183880267876472e-06</v>
+        <v>2.184227965147058e-06</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.17580349565994e-06</v>
+        <v>2.175386057517941e-06</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.180422112527682e-06</v>
+        <v>2.179175293497281e-06</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.196804875262677e-06</v>
+        <v>2.194673064863105e-06</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.224020540647861e-06</v>
+        <v>2.220956763393396e-06</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.261137865466253e-06</v>
+        <v>2.257103780866213e-06</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.307225606500796e-06</v>
+        <v>2.302191509059551e-06</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.361352520534405e-06</v>
+        <v>2.355297339751368e-06</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.422587364350145e-06</v>
+        <v>2.415498664719774e-06</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.489998894730871e-06</v>
+        <v>2.481872875742671e-06</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.562655868459675e-06</v>
+        <v>2.553497364598195e-06</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.639627042319462e-06</v>
+        <v>2.629449523064297e-06</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.719981173093124e-06</v>
+        <v>2.708806742918918e-06</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.802787017563776e-06</v>
+        <v>2.790646415940213e-06</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.887113332514309e-06</v>
+        <v>2.874045933906122e-06</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.972028874727614e-06</v>
+        <v>2.958082688594583e-06</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>3.05660240098681e-06</v>
+        <v>3.041834071783758e-06</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>3.139902668074789e-06</v>
+        <v>3.124377475251585e-06</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>3.220998432774442e-06</v>
+        <v>3.204790290776002e-06</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>3.298958451868884e-06</v>
+        <v>3.282149910135168e-06</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.372851482140943e-06</v>
+        <v>3.355533725106957e-06</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.441746280373715e-06</v>
+        <v>3.424019127469513e-06</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>3.504711603350102e-06</v>
+        <v>3.486683509000779e-06</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>3.560816484477461e-06</v>
+        <v>3.542604534775456e-06</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>3.609419332970957e-06</v>
+        <v>3.591145764575008e-06</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>3.650715795449937e-06</v>
+        <v>3.632497923879286e-06</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>3.685052055554237e-06</v>
+        <v>3.66700046427506e-06</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>3.712774296923785e-06</v>
+        <v>3.694992837349187e-06</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>3.73422870319841e-06</v>
+        <v>3.71681449468843e-06</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.749761458017967e-06</v>
+        <v>3.732804887879571e-06</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.759718745022347e-06</v>
+        <v>3.743303468509435e-06</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>3.7644467478514e-06</v>
+        <v>3.748649688164802e-06</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>3.764291650144991e-06</v>
+        <v>3.74918299843247e-06</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>3.759599635542987e-06</v>
+        <v>3.745242850899233e-06</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>3.750716887685249e-06</v>
+        <v>3.737168697151888e-06</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>3.737989590211655e-06</v>
+        <v>3.725299988777241e-06</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>3.721763926762047e-06</v>
+        <v>3.709976177362066e-06</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>3.702386080976319e-06</v>
+        <v>3.691536714493188e-06</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>3.6802022364943e-06</v>
+        <v>3.670321051757369e-06</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.655558576955871e-06</v>
+        <v>3.646668640741418e-06</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>3.628801286000923e-06</v>
+        <v>3.620918933032157e-06</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>3.60027654726927e-06</v>
+        <v>3.593411380216334e-06</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>3.570330544400803e-06</v>
+        <v>3.564485433880769e-06</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>3.539309461035412e-06</v>
+        <v>3.534480545612284e-06</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>3.507559480812908e-06</v>
+        <v>3.503736166997622e-06</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>3.475426787373182e-06</v>
+        <v>3.472591749623603e-06</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>3.44325756435613e-06</v>
+        <v>3.441386745077054e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>3.411397995401556e-06</v>
+        <v>3.410460604944713e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.380194264149383e-06</v>
+        <v>3.38015278081343e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>3.349992554239421e-06</v>
+        <v>3.350802724269949e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.321139049311559e-06</v>
+        <v>3.322749886901091e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.293979933005689e-06</v>
+        <v>3.296333720293677e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>3.268861388961624e-06</v>
+        <v>3.271893676034453e-06</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>3.246129600819257e-06</v>
+        <v>3.249769205710241e-06</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>3.226130752218469e-06</v>
+        <v>3.230299760907853e-06</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>3.209211026799087e-06</v>
+        <v>3.213824793214049e-06</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>3.195716608200996e-06</v>
+        <v>3.200683754215644e-06</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>3.185993680064067e-06</v>
+        <v>3.191216095499441e-06</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>3.18038842602815e-06</v>
+        <v>3.185761268652219e-06</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>3.179247029733116e-06</v>
+        <v>3.184658725260782e-06</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>3.182915674818829e-06</v>
+        <v>3.188247916911925e-06</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>3.191740538579932e-06</v>
+        <v>3.196868288958219e-06</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>3.205885685470735e-06</v>
+        <v>3.210680359598743e-06</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>3.224856813109398e-06</v>
+        <v>3.229197796960235e-06</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>3.248010892007798e-06</v>
+        <v>3.251788143735742e-06</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>3.274704892677737e-06</v>
+        <v>3.277818942618233e-06</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>3.304295785631104e-06</v>
+        <v>3.306657736300772e-06</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>3.336140541379716e-06</v>
+        <v>3.337672067476346e-06</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>3.369596130435387e-06</v>
+        <v>3.370229478837938e-06</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>3.404019523310017e-06</v>
+        <v>3.403697513078619e-06</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>3.43876769051542e-06</v>
+        <v>3.437443712891374e-06</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>3.473197602563405e-06</v>
+        <v>3.470835620969183e-06</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>3.506666229965876e-06</v>
+        <v>3.503240780005119e-06</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>3.538530543234642e-06</v>
+        <v>3.534026732692162e-06</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>3.568147512881523e-06</v>
+        <v>3.562561021723305e-06</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>3.59487410941841e-06</v>
+        <v>3.588211189791606e-06</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>3.6180673033571e-06</v>
+        <v>3.610344779590036e-06</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>3.637084065209476e-06</v>
+        <v>3.628329333811645e-06</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>3.651281365487355e-06</v>
+        <v>3.641532395149423e-06</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>3.660057263878445e-06</v>
+        <v>3.649362698299276e-06</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>3.663531207103674e-06</v>
+        <v>3.651952170285361e-06</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>3.662438078898861e-06</v>
+        <v>3.65004971529831e-06</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>3.657532494430692e-06</v>
+        <v>3.644424018338185e-06</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>3.649569068865839e-06</v>
+        <v>3.635843764405032e-06</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>3.63930241737098e-06</v>
+        <v>3.625077638498907e-06</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>3.627487155112808e-06</v>
+        <v>3.612894325619878e-06</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>3.614877897257983e-06</v>
+        <v>3.600062510767979e-06</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>3.602229258973202e-06</v>
+        <v>3.587350878943286e-06</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>3.590295855425123e-06</v>
+        <v>3.575528115145828e-06</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>3.579832301780438e-06</v>
+        <v>3.565362904375676e-06</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>3.57159321320583e-06</v>
+        <v>3.557623931632887e-06</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>3.566333204867965e-06</v>
+        <v>3.553079881917504e-06</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>3.564806891933532e-06</v>
+        <v>3.552499440229591e-06</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>3.567765189921521e-06</v>
+        <v>3.556647353549213e-06</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>3.575323928396084e-06</v>
+        <v>3.565612363627018e-06</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>3.586249071963659e-06</v>
+        <v>3.578046373997539e-06</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>3.599133905359621e-06</v>
+        <v>3.592417482373498e-06</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>3.612571713319384e-06</v>
+        <v>3.60719378646765e-06</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>3.625155780578312e-06</v>
+        <v>3.620843383992706e-06</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>3.635479391871817e-06</v>
+        <v>3.631834372661422e-06</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>3.642135831935275e-06</v>
+        <v>3.638634850186515e-06</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>3.643718385504074e-06</v>
+        <v>3.639712914280718e-06</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>3.6388958435323e-06</v>
+        <v>3.633620873369652e-06</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>3.628714185615237e-06</v>
+        <v>3.621562271149264e-06</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>3.617018543905645e-06</v>
+        <v>3.607862495269661e-06</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>3.607814656514729e-06</v>
+        <v>3.597026054286326e-06</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>3.605108261553728e-06</v>
+        <v>3.593557456754777e-06</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>3.61290509713386e-06</v>
+        <v>3.60196121123051e-06</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>3.635210901366367e-06</v>
+        <v>3.626741826269048e-06</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>3.675537242942977e-06</v>
+        <v>3.671855104280258e-06</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>3.729044611443737e-06</v>
+        <v>3.731984140277588e-06</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>3.783937360789489e-06</v>
+        <v>3.794088211823469e-06</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>3.828207588796229e-06</v>
+        <v>3.844890915710574e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>3.849847393279991e-06</v>
+        <v>3.871115848731615e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>3.840501656669912e-06</v>
+        <v>3.863460394690048e-06</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>3.808159337736198e-06</v>
+        <v>3.830402311855871e-06</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>3.765378829392884e-06</v>
+        <v>3.785390349118695e-06</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>3.724718737552923e-06</v>
+        <v>3.74187348708513e-06</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>3.696600270648837e-06</v>
+        <v>3.711027898050865e-06</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>3.681916002521597e-06</v>
+        <v>3.693897450849185e-06</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>3.678904192810034e-06</v>
+        <v>3.688703540986035e-06</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>3.685802988753768e-06</v>
+        <v>3.693667444447312e-06</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>3.70085053759244e-06</v>
+        <v>3.707010437218924e-06</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>3.722284986565679e-06</v>
+        <v>3.726953795286777e-06</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>3.748344482913082e-06</v>
+        <v>3.751718794636745e-06</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.777267173874334e-06</v>
+        <v>3.779526711254776e-06</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.80729120668901e-06</v>
+        <v>3.808598821126726e-06</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.836654728596795e-06</v>
+        <v>3.837156400238552e-06</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.863595886837292e-06</v>
+        <v>3.863420724576128e-06</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.886352828650128e-06</v>
+        <v>3.885613070125355e-06</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>3.903163701274921e-06</v>
+        <v>3.901954712872126e-06</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>3.912333385235341e-06</v>
+        <v>3.910734366783388e-06</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>3.913778242765675e-06</v>
+        <v>3.911869244627299e-06</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>3.909069867815599e-06</v>
+        <v>3.906949269973789e-06</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>3.899855339587968e-06</v>
+        <v>3.897640648762928e-06</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>3.887781737285652e-06</v>
+        <v>3.885609586934799e-06</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.874496140111488e-06</v>
+        <v>3.872522290429447e-06</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>3.861645627268345e-06</v>
+        <v>3.860044965186957e-06</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>3.850877277959091e-06</v>
+        <v>3.849843817147407e-06</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>3.843838171386563e-06</v>
+        <v>3.843585052250847e-06</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>3.842175386753633e-06</v>
+        <v>3.84293487643736e-06</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>3.847536003263151e-06</v>
+        <v>3.849559495647007e-06</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>3.861567100117984e-06</v>
+        <v>3.865125115819871e-06</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>3.885915756520965e-06</v>
+        <v>3.89129794289599e-06</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>3.921909299173456e-06</v>
+        <v>3.929397930631204e-06</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>3.969063664635371e-06</v>
+        <v>3.9787835225819e-06</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>4.026257672238002e-06</v>
+        <v>4.03812324359862e-06</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>4.092369437173252e-06</v>
+        <v>4.106084856036536e-06</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>4.166277074632872e-06</v>
+        <v>4.181336122250653e-06</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>4.246858699808584e-06</v>
+        <v>4.262544804595952e-06</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>4.332992427892331e-06</v>
+        <v>4.348378665427638e-06</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>4.423556374075841e-06</v>
+        <v>4.437505467100699e-06</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>4.51742873602029e-06</v>
+        <v>4.528593057658244e-06</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>4.628375107147558e-06</v>
+        <v>4.635777716111224e-06</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>4.826579312445244e-06</v>
+        <v>4.831815881391816e-06</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>5.194881679330423e-06</v>
+        <v>5.202609757606576e-06</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>5.770495103366092e-06</v>
+        <v>5.78634933707794e-06</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>6.517963216024786e-06</v>
+        <v>6.545234989710633e-06</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>7.395345329357465e-06</v>
+        <v>7.434686488541452e-06</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>8.360700755413094e-06</v>
+        <v>8.410123606605178e-06</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>9.372088806240344e-06</v>
+        <v>9.42696611693629e-06</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.038737755314978e-05</v>
+        <v>1.04404813264013e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.135224162263702e-05</v>
+        <v>1.139621535049891e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>1.219303035745839e-05</v>
+        <v>1.222430727379391e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.283437997174159e-05</v>
+        <v>1.285353039362006e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.320092667961175e-05</v>
+        <v>1.321265800730858e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.322950524343497e-05</v>
+        <v>1.324218561251491e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.297538216887159e-05</v>
+        <v>1.299641574296242e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.256042191276541e-05</v>
+        <v>1.259364826300196e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.210723110423763e-05</v>
+        <v>1.215289622776238e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.173841637240817e-05</v>
+        <v>1.179317269237129e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.15651676520867e-05</v>
+        <v>1.162237395880308e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.157024847412801e-05</v>
+        <v>1.162334396340594e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.165556042760973e-05</v>
+        <v>1.170018911817985e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>1.1721744212871e-05</v>
+        <v>1.175578807265006e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>1.166944053025121e-05</v>
+        <v>1.169301947634202e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>1.140075138489179e-05</v>
+        <v>1.141619822030807e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>1.088479853257165e-05</v>
+        <v>1.089550947047343e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>1.01841811536202e-05</v>
+        <v>1.019301255808001e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>9.368435598035048e-06</v>
+        <v>9.377585002568543e-06</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>8.507098215814195e-06</v>
+        <v>8.518104323380183e-06</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>7.669705356953266e-06</v>
+        <v>7.6834480399537e-06</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>6.925793371450872e-06</v>
+        <v>6.942493671730837e-06</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>6.343810180165663e-06</v>
+        <v>6.363039631316906e-06</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>5.954203201862091e-06</v>
+        <v>5.975209300309922e-06</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>5.740415006678776e-06</v>
+        <v>5.762523804235544e-06</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>5.682973299362215e-06</v>
+        <v>5.705614368802891e-06</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>5.762405784659537e-06</v>
+        <v>5.78511221972171e-06</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>5.959240167317387e-06</v>
+        <v>5.981648582701265e-06</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>6.254004152082995e-06</v>
+        <v>6.275854683451406e-06</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>6.6272254437031e-06</v>
+        <v>6.648361747681492e-06</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>7.059431746924155e-06</v>
+        <v>7.079801001100597e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>7.531150766493819e-06</v>
+        <v>7.550803669418997e-06</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>8.022910207158143e-06</v>
+        <v>8.042000978345365e-06</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>8.515237773664894e-06</v>
+        <v>8.534024153590083e-06</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>8.988661170760496e-06</v>
+        <v>9.007504420862202e-06</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>9.423921612843452e-06</v>
+        <v>9.443281984004642e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>9.807551977786042e-06</v>
+        <v>9.827865788357527e-06</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.013241311285111e-05</v>
+        <v>1.015395844414494e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.039168689991357e-05</v>
+        <v>1.041457678258044e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.057855522084938e-05</v>
+        <v>1.060273763487861e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.068619995753378e-05</v>
+        <v>1.071145783225333e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.070780299184227e-05</v>
+        <v>1.073375420591873e-05</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.063654620565039e-05</v>
+        <v>1.066264358708898e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.046562231238462e-05</v>
+        <v>1.049115373360071e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.019683575446784e-05</v>
+        <v>1.022099971979741e-05</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>9.856075985832542e-06</v>
+        <v>9.878193032292806e-06</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>9.473410785875893e-06</v>
+        <v>9.49296015747544e-06</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>9.078907933995236e-06</v>
+        <v>9.095527581734014e-06</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>8.702635209586815e-06</v>
+        <v>8.716121791456126e-06</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>8.374660392048233e-06</v>
+        <v>8.384969273030744e-06</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>8.125051260775854e-06</v>
+        <v>8.132296512845594e-06</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>7.983875595166984e-06</v>
+        <v>7.98832999728934e-06</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>7.981201174618536e-06</v>
+        <v>7.983296212750259e-06</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>8.147095778527462e-06</v>
+        <v>8.147421645616663e-06</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>8.511627186290813e-06</v>
+        <v>8.510932782276961e-06</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>9.104863177304925e-06</v>
+        <v>9.104056109118853e-06</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>9.956871530967826e-06</v>
+        <v>9.957018112531724e-06</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.109203221453117e-05</v>
+        <v>1.10943313409628e-05</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.24635531253805e-05</v>
+        <v>1.246900935872182e-05</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.397620648230657e-05</v>
+        <v>1.398540757219148e-05</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.553383617400226e-05</v>
+        <v>1.554694879356316e-05</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.704028608916589e-05</v>
+        <v>1.70570558350337e-05</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.839940011649148e-05</v>
+        <v>1.841915150879562e-05</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.951450271420718e-05</v>
+        <v>1.953619356778407e-05</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.028416993199086e-05</v>
+        <v>2.030688839444419e-05</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.060443301633992e-05</v>
+        <v>2.062766394445303e-05</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>2.154772065825737e-05</v>
+        <v>2.15729215578238e-05</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>2.577916480027455e-05</v>
+        <v>2.581147088763775e-05</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>3.136380585998167e-05</v>
+        <v>3.140519221261619e-05</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>3.585156682184454e-05</v>
+        <v>3.590010204111319e-05</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>3.703626166049687e-05</v>
+        <v>3.708650613115157e-05</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>3.528267607180725e-05</v>
+        <v>3.532988020610461e-05</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>3.249685962216834e-05</v>
+        <v>3.253948065222546e-05</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>3.058951207940432e-05</v>
+        <v>3.062922007220134e-05</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>3.025222850496331e-05</v>
+        <v>3.029179715742128e-05</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>3.017966922974244e-05</v>
+        <v>3.021952151653351e-05</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>2.970873638876219e-05</v>
+        <v>2.974806600986171e-05</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>2.88829714622309e-05</v>
+        <v>2.892097409591276e-05</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>2.776804695376268e-05</v>
+        <v>2.780395881783861e-05</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>2.642963536697378e-05</v>
+        <v>2.646273321879329e-05</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>2.493340920548125e-05</v>
+        <v>2.496301034193171e-05</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>2.334504097289803e-05</v>
+        <v>2.337050323040457e-05</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>2.172804872903319e-05</v>
+        <v>2.17487821771979e-05</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>2.011504993315627e-05</v>
+        <v>2.013068459343778e-05</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.851554012643073e-05</v>
+        <v>1.852605147059761e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.693845727137114e-05</v>
+        <v>1.694416924786231e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>1.539273933049201e-05</v>
+        <v>1.539432436441674e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>1.388732426630364e-05</v>
+        <v>1.388580325944159e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>1.243115004132184e-05</v>
+        <v>1.242789237212303e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.103315461805707e-05</v>
+        <v>1.102987814164188e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>9.702303467725544e-06</v>
+        <v>9.701072921939521e-06</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>8.455362070029614e-06</v>
+        <v>8.458137117143887e-06</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>7.327581982881996e-06</v>
+        <v>7.335146065056694e-06</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>6.356893032048987e-06</v>
+        <v>6.36869818363241e-06</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>5.581225043296316e-06</v>
+        <v>5.59539189082494e-06</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>5.03589403014041e-06</v>
+        <v>5.049294069284803e-06</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>4.712282766359814e-06</v>
+        <v>4.721921281755102e-06</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>4.565304214613937e-06</v>
+        <v>4.569468267700172e-06</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>4.548766450510052e-06</v>
+        <v>4.547059658897968e-06</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>4.616477549655788e-06</v>
+        <v>4.609820087126819e-06</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.722245587658811e-06</v>
+        <v>4.712874184165073e-06</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>4.819878640126596e-06</v>
+        <v>4.811346581790901e-06</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>4.867405729300866e-06</v>
+        <v>4.864349961916938e-06</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>4.865857979200363e-06</v>
+        <v>4.871626408491616e-06</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>4.84137694169864e-06</v>
+        <v>4.85664293114009e-06</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>4.820418838486548e-06</v>
+        <v>4.843163846967552e-06</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>4.829439891254871e-06</v>
+        <v>4.854953473079146e-06</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>4.894757436048073e-06</v>
+        <v>4.915654386519629e-06</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>5.021358105982075e-06</v>
+        <v>5.030211760165938e-06</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>5.170111766039211e-06</v>
+        <v>5.164900262358206e-06</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>5.298417602910392e-06</v>
+        <v>5.282917616240547e-06</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>5.391354278437545e-06</v>
+        <v>5.371242089755003e-06</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>5.454251291337283e-06</v>
+        <v>5.434250255214111e-06</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>5.492901509035756e-06</v>
+        <v>5.47671678353217e-06</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>5.513097798959107e-06</v>
+        <v>5.503416345623465e-06</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>5.520633028533514e-06</v>
+        <v>5.519123612402341e-06</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>5.5213000651851e-06</v>
+        <v>5.528613254783058e-06</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>5.52086064865281e-06</v>
+        <v>5.536634497952249e-06</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>5.522971702873059e-06</v>
+        <v>5.546215958386073e-06</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>5.527883482912666e-06</v>
+        <v>5.557601427340562e-06</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>5.535535669754064e-06</v>
+        <v>5.570780813297697e-06</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>5.545867944379675e-06</v>
+        <v>5.585744024739442e-06</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>5.558819987771909e-06</v>
+        <v>5.60248097014774e-06</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>5.574331480913211e-06</v>
+        <v>5.620981558004589e-06</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>5.592342104785995e-06</v>
+        <v>5.641235696791939e-06</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>5.612791540372667e-06</v>
+        <v>5.663233294991738e-06</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.635619468655685e-06</v>
+        <v>5.68696426108599e-06</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>5.660765570617431e-06</v>
+        <v>5.712418503556616e-06</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>5.688169527240376e-06</v>
+        <v>5.739585930885628e-06</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>5.717771019506923e-06</v>
+        <v>5.768456451554972e-06</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>5.74950972839946e-06</v>
+        <v>5.799019974046581e-06</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>5.783325334900473e-06</v>
+        <v>5.83126640684248e-06</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>5.819157519992357e-06</v>
+        <v>5.865185658424604e-06</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>5.856945964657499e-06</v>
+        <v>5.900767637274888e-06</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>5.89663034987839e-06</v>
+        <v>5.938002251875361e-06</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>5.938150356637423e-06</v>
+        <v>5.976879410707957e-06</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>5.981445665916978e-06</v>
+        <v>6.017389022254606e-06</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>6.026455958699561e-06</v>
+        <v>6.059520994997343e-06</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>6.073120915967512e-06</v>
+        <v>6.10326523741806e-06</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>6.12138021870334e-06</v>
+        <v>6.148611657998803e-06</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>6.171173547889425e-06</v>
+        <v>6.195550165221496e-06</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>6.222440584508191e-06</v>
+        <v>6.244070667568105e-06</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>6.275121009542014e-06</v>
+        <v>6.294163073520553e-06</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>6.329154503973414e-06</v>
+        <v>6.34581729156089e-06</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>6.384529720921743e-06</v>
+        <v>6.399065106796484e-06</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>6.441508043522589e-06</v>
+        <v>6.454171518840816e-06</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>6.500445238707624e-06</v>
+        <v>6.511482235953551e-06</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>6.561697164613229e-06</v>
+        <v>6.571343044384527e-06</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>6.625619679375958e-06</v>
+        <v>6.634099730383753e-06</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>6.692568641132198e-06</v>
+        <v>6.700098080201064e-06</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>6.762899908018327e-06</v>
+        <v>6.7696838800863e-06</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>6.836969338170915e-06</v>
+        <v>6.843202916289476e-06</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>6.915132789726336e-06</v>
+        <v>6.921000975060431e-06</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>6.997746120820961e-06</v>
+        <v>7.003423842648982e-06</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>7.085165189591377e-06</v>
+        <v>7.090817305305174e-06</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>7.177745854173868e-06</v>
+        <v>7.183527149278746e-06</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>7.275843972705047e-06</v>
+        <v>7.281899160819761e-06</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>7.379815403321268e-06</v>
+        <v>7.38627912617803e-06</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>7.490016004158873e-06</v>
+        <v>7.497012831603351e-06</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>7.606801633354505e-06</v>
+        <v>7.614446063345818e-06</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>7.730528149044505e-06</v>
+        <v>7.73892460765523e-06</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>7.861551409365196e-06</v>
+        <v>7.870794250781359e-06</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>8.000227272453254e-06</v>
+        <v>8.010400778974338e-06</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>8.146911596445009e-06</v>
+        <v>8.158089978483954e-06</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>8.301960239476755e-06</v>
+        <v>8.31420763555995e-06</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>8.465729059685216e-06</v>
+        <v>8.47909953645251e-06</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>8.638573915206538e-06</v>
+        <v>8.653111467411229e-06</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>8.820850664177472e-06</v>
+        <v>8.836589214686314e-06</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>9.012915164734309e-06</v>
+        <v>9.029878564527511e-06</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>9.215123275013304e-06</v>
+        <v>9.233325303184529e-06</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>9.427830853151263e-06</v>
+        <v>9.447275216907626e-06</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>9.651393757284453e-06</v>
+        <v>9.672074091946528e-06</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>9.886167845549095e-06</v>
+        <v>9.908067714550906e-06</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.013250897608205e-05</v>
+        <v>1.015560187097108e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.039077300701956e-05</v>
+        <v>1.041502234745674e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.066131579649782e-05</v>
+        <v>1.068667493025754e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.094449320265376e-05</v>
+        <v>1.097090540562386e-05</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.124066108362329e-05</v>
+        <v>1.126805955980507e-05</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.155017529754341e-05</v>
+        <v>1.157848317905162e-05</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.187417975730508e-05</v>
+        <v>1.190331055932941e-05</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.221754197833885e-05</v>
+        <v>1.224740174886226e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.25862282040465e-05</v>
+        <v>1.261671615816523e-05</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.298620483708295e-05</v>
+        <v>1.301721335709848e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.342343828010168e-05</v>
+        <v>1.345485291552071e-05</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.390389493575774e-05</v>
+        <v>1.393559440329221e-05</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.443354120670498e-05</v>
+        <v>1.446539739027205e-05</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.501834349559709e-05</v>
+        <v>1.505022144631915e-05</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.566426820508936e-05</v>
+        <v>1.569602614129403e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.637728173783553e-05</v>
+        <v>1.640877104505567e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.716335049648911e-05</v>
+        <v>1.719441572746278e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.802782327123493e-05</v>
+        <v>1.805830226568801e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.89650167963817e-05</v>
+        <v>1.899474282063454e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.995973477091466e-05</v>
+        <v>1.99885383628831e-05</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.099646917704895e-05</v>
+        <v>2.102417820670011e-05</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.205971199699609e-05</v>
+        <v>2.208615166634835e-05</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>2.313395521297136e-05</v>
+        <v>2.315894805609436e-05</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>2.420369080718717e-05</v>
+        <v>2.422705669020182e-05</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>2.525341076185596e-05</v>
+        <v>2.527496688293442e-05</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>2.626760705919296e-05</v>
+        <v>2.628716794855865e-05</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>2.723077168141059e-05</v>
+        <v>2.72481492013382e-05</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>2.812739661072143e-05</v>
+        <v>2.814239995553691e-05</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.894197382934046e-05</v>
+        <v>2.895440952542102e-05</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.965899531948019e-05</v>
+        <v>2.966866722525429e-05</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>3.026295306335351e-05</v>
+        <v>3.026966236930089e-05</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>3.073833904317484e-05</v>
+        <v>3.074188427182649e-05</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>3.107807658679645e-05</v>
+        <v>3.107827962113339e-05</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>3.13139881123607e-05</v>
+        <v>3.131081428115695e-05</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>3.148910670513892e-05</v>
+        <v>3.148269939140091e-05</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>3.164646649682857e-05</v>
+        <v>3.163714714102552e-05</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>3.18291016191275e-05</v>
+        <v>3.181736971919142e-05</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>3.208004620373316e-05</v>
+        <v>3.206657931505891e-05</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>3.244233438234277e-05</v>
+        <v>3.242798811778798e-05</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>3.295900028665456e-05</v>
+        <v>3.294480831653969e-05</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>3.367304481614616e-05</v>
+        <v>3.366021869558562e-05</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>3.461717436326529e-05</v>
+        <v>3.460705004369449e-05</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>3.579927868040441e-05</v>
+        <v>3.579318756662251e-05</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>3.722358318006844e-05</v>
+        <v>3.722283309096385e-05</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>3.889431327476139e-05</v>
+        <v>3.890018844331178e-05</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>4.08156943769919e-05</v>
+        <v>4.082945545026423e-05</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>4.299195189926421e-05</v>
+        <v>4.301483593841469e-05</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>4.542731125408169e-05</v>
+        <v>4.546053173435575e-05</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>4.812599785395432e-05</v>
+        <v>4.817074466468671e-05</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>5.108909515898062e-05</v>
+        <v>5.114649643130306e-05</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>5.427934683425582e-05</v>
+        <v>5.435000314223265e-05</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>5.763387136621307e-05</v>
+        <v>5.771754440073447e-05</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>6.108931833699303e-05</v>
+        <v>6.118492520895043e-05</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>6.458233732874579e-05</v>
+        <v>6.468795056903185e-05</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>6.804957792361207e-05</v>
+        <v>6.816242548312076e-05</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>7.14276897037327e-05</v>
+        <v>7.154415495335922e-05</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>7.465332225125764e-05</v>
+        <v>7.47689439818984e-05</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>7.766312514832758e-05</v>
+        <v>7.777259757088031e-05</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>8.03943239913619e-05</v>
+        <v>8.049163798511607e-05</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>8.279234462635765e-05</v>
+        <v>8.287279857813178e-05</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>8.48087179847399e-05</v>
+        <v>8.487041485852919e-05</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>8.639512051134526e-05</v>
+        <v>8.643900353065577e-05</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>8.750322865100455e-05</v>
+        <v>8.75330812988533e-05</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>8.808471884855027e-05</v>
+        <v>8.810716486746524e-05</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>8.809127762027727e-05</v>
+        <v>8.811577995840775e-05</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>8.749093246906564e-05</v>
+        <v>8.752808333999218e-05</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>8.630128184697707e-05</v>
+        <v>8.635761556687936e-05</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>8.454928864847411e-05</v>
+        <v>8.462630172978704e-05</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>8.226191577134551e-05</v>
+        <v>8.235606692315564e-05</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>7.947513959481134e-05</v>
+        <v>7.957892530784487e-05</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>7.626021768548602e-05</v>
+        <v>7.63663823606614e-05</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>7.269703884517215e-05</v>
+        <v>7.279960476487778e-05</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>6.886549187566033e-05</v>
+        <v>6.895975920375453e-05</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>6.484546557875055e-05</v>
+        <v>6.492801236056164e-05</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>6.071684875623993e-05</v>
+        <v>6.078553091856608e-05</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>5.655953020992911e-05</v>
+        <v>5.661348156103851e-05</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>5.245339874160761e-05</v>
+        <v>5.249303097123834e-05</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>4.847834315307968e-05</v>
+        <v>4.850534583243978e-05</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>4.470495399300324e-05</v>
+        <v>4.47221086142691e-05</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>4.11502814782465e-05</v>
+        <v>4.116039067418982e-05</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>3.781225151026106e-05</v>
+        <v>3.781775657732152e-05</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>3.468876612260461e-05</v>
+        <v>3.469174654354391e-05</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>3.177772734884402e-05</v>
+        <v>3.177990079274588e-05</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>2.907703722254534e-05</v>
+        <v>2.907975954481547e-05</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>2.658459777726746e-05</v>
+        <v>2.658886301963357e-05</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>2.429831104657662e-05</v>
+        <v>2.430475143708845e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.221606278937143e-05</v>
+        <v>2.222494994247499e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>2.033416078912556e-05</v>
+        <v>2.034552206366586e-05</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.864603885562412e-05</v>
+        <v>1.865986927819633e-05</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.714482574069449e-05</v>
+        <v>1.716111050024906e-05</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.582365019616866e-05</v>
+        <v>1.584236464401133e-05</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.467564097387801e-05</v>
+        <v>1.469675062366977e-05</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.369392682565088e-05</v>
+        <v>1.371738735340803e-05</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.287163650331878e-05</v>
+        <v>1.289739374741287e-05</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.220189875871266e-05</v>
+        <v>1.222988871987052e-05</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.167741018462127e-05</v>
+        <v>1.170755427676134e-05</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.128062059827613e-05</v>
+        <v>1.131271304270899e-05</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.098355945932539e-05</v>
+        <v>1.101715277139396e-05</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.075778934890026e-05</v>
+        <v>1.079218920727035e-05</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.057487284813294e-05</v>
+        <v>1.06091380947932e-05</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.040637253815482e-05</v>
+        <v>1.043931517841678e-05</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.022385100009782e-05</v>
+        <v>1.025403620259587e-05</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>9.998870815093881e-06</v>
+        <v>1.002461691178528e-05</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>9.702994564274351e-06</v>
+        <v>9.722373050439211e-06</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>9.325457416863374e-06</v>
+        <v>9.336785621333172e-06</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>8.931826165003149e-06</v>
+        <v>8.935795196441555e-06</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>8.608271580422579e-06</v>
+        <v>8.608520717860555e-06</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>8.439378522960077e-06</v>
+        <v>8.442414832428851e-06</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>8.407345167369187e-06</v>
+        <v>8.417354411766147e-06</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>8.357473331110512e-06</v>
+        <v>8.369522065468246e-06</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>8.287497562821089e-06</v>
+        <v>8.296155544718944e-06</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>8.260934244697949e-06</v>
+        <v>8.263961712071263e-06</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>8.341458819745054e-06</v>
+        <v>8.339815406741588e-06</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>8.589578902013898e-06</v>
+        <v>8.587311561743589e-06</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>8.99261351348864e-06</v>
+        <v>8.994267118068361e-06</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>9.464510102950712e-06</v>
+        <v>9.472531569707475e-06</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>9.916011693928745e-06</v>
+        <v>9.930636613378619e-06</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.025786130995293e-05</v>
+        <v>1.027711394580106e-05</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.040084993100617e-05</v>
+        <v>1.042054434920907e-05</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.030561121464516e-05</v>
+        <v>1.032052475401116e-05</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.007687657249459e-05</v>
+        <v>1.008414240877187e-05</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>9.845265790010518e-06</v>
+        <v>9.844982438567594e-06</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>9.735537984414618e-06</v>
+        <v>9.730649256993461e-06</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>9.762494242176717e-06</v>
+        <v>9.756536991943729e-06</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>9.843227161363991e-06</v>
+        <v>9.838329933621932e-06</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>9.891429298827206e-06</v>
+        <v>9.88824268844699e-06</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>9.837860043077863e-06</v>
+        <v>9.8358722116158e-06</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>9.685525805037551e-06</v>
+        <v>9.684398122446342e-06</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>9.456546997021985e-06</v>
+        <v>9.456467405106749e-06</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>9.173044153016955e-06</v>
+        <v>9.174727167684557e-06</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>8.857137807008458e-06</v>
+        <v>8.8618245182675e-06</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>8.530947621719376e-06</v>
+        <v>8.540405577232663e-06</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>8.213469313093657e-06</v>
+        <v>8.229574990682961e-06</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>7.913555544567526e-06</v>
+        <v>7.936938694257132e-06</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>7.638003971733106e-06</v>
+        <v>7.667772956052357e-06</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>7.393612250183352e-06</v>
+        <v>7.427354044166626e-06</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>7.187178035511107e-06</v>
+        <v>7.220958226697819e-06</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>7.025498983308667e-06</v>
+        <v>7.053861771743279e-06</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>6.915372452388361e-06</v>
+        <v>6.931340744174981e-06</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>6.849757735716252e-06</v>
+        <v>6.849194001769214e-06</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>6.789555602430945e-06</v>
+        <v>6.780757998196127e-06</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>6.731379293018033e-06</v>
+        <v>6.722547719278868e-06</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>6.679142417208485e-06</v>
+        <v>6.67588071310061e-06</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.636758584733133e-06</v>
+        <v>6.642074527744409e-06</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.608141405322978e-06</v>
+        <v>6.62244671129347e-06</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.596312098653343e-06</v>
+        <v>6.617817622148729e-06</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.600060879827673e-06</v>
+        <v>6.626650340293212e-06</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.616925311456869e-06</v>
+        <v>6.646710038006058e-06</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.6444427638575e-06</v>
+        <v>6.675761780430818e-06</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>6.6801506073461e-06</v>
+        <v>6.711570632710995e-06</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>6.721586212239168e-06</v>
+        <v>6.751901659990066e-06</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>6.76628694885332e-06</v>
+        <v>6.794519927411621e-06</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>6.811790187505064e-06</v>
+        <v>6.837190500119139e-06</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>6.855633298510899e-06</v>
+        <v>6.877678443256105e-06</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>6.895353652187448e-06</v>
+        <v>6.913748821966105e-06</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>6.928488618851187e-06</v>
+        <v>6.943166701392596e-06</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>6.952580686463083e-06</v>
+        <v>6.96370191117991e-06</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>6.966155757294279e-06</v>
+        <v>6.974039834670969e-06</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>6.96988598175645e-06</v>
+        <v>6.974864001262522e-06</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>6.964726633346386e-06</v>
+        <v>6.967121526497104e-06</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>6.951632985560868e-06</v>
+        <v>6.951759525917249e-06</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>6.93156031189671e-06</v>
+        <v>6.929725115065518e-06</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>6.905463885850657e-06</v>
+        <v>6.901965409484407e-06</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>6.874298980919517e-06</v>
+        <v>6.86942752471647e-06</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>6.839020870600112e-06</v>
+        <v>6.833058576304277e-06</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>6.800584828389165e-06</v>
+        <v>6.7938056797903e-06</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>6.759946127783532e-06</v>
+        <v>6.752615950717148e-06</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>6.718060042279931e-06</v>
+        <v>6.710436504627281e-06</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>6.67588184537518e-06</v>
+        <v>6.668214457063273e-06</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>6.634366810566109e-06</v>
+        <v>6.626896923567698e-06</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>6.594470211349429e-06</v>
+        <v>6.587431019683016e-06</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>6.557147321221967e-06</v>
+        <v>6.550763860951803e-06</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>6.52335341368054e-06</v>
+        <v>6.517842562916625e-06</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>6.494043762221878e-06</v>
+        <v>6.489614241119961e-06</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>6.470173640342795e-06</v>
+        <v>6.467026011104375e-06</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>6.452666386807923e-06</v>
+        <v>6.450983192299188e-06</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>6.442298044022047e-06</v>
+        <v>6.442198322954274e-06</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>6.439802214775213e-06</v>
+        <v>6.441328396437083e-06</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>6.445912497916797e-06</v>
+        <v>6.449030400957543e-06</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>6.461362492296193e-06</v>
+        <v>6.465961324725586e-06</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>6.486885796762778e-06</v>
+        <v>6.492778155951137e-06</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>6.523216010165897e-06</v>
+        <v>6.530137882844087e-06</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>6.571086731355001e-06</v>
+        <v>6.578697493614429e-06</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>6.631231559179379e-06</v>
+        <v>6.639113976472e-06</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>6.704384092488525e-06</v>
+        <v>6.712044319626837e-06</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>6.791277930131773e-06</v>
+        <v>6.798145511288819e-06</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>6.892646670958407e-06</v>
+        <v>6.898074539667777e-06</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>7.009223913817989e-06</v>
+        <v>7.012488392973816e-06</v>
       </c>
     </row>
   </sheetData>
